--- a/medicine/Psychotrope/Fara_(vin)/Fara_(vin).xlsx
+++ b/medicine/Psychotrope/Fara_(vin)/Fara_(vin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Fara est un vin italien de la région Piémont doté d'une appellation DOC depuis le 13 août 1969. Seuls ont droit à la DOC les vins rouges  récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent en province de Novare, quelques kilomètres au sud du Lac Majeur, dans la commune de Fara Novarese et de Briona. La superficie plantée en vignes est de 18 hectares.
@@ -515,7 +527,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis plus ou moins intense
 odeur : fin, avec des arômes de violette.
@@ -550,6 +564,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,7 +619,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
 Novara  (1990/91)  896,28
